--- a/results-synth.xlsx
+++ b/results-synth.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35582A7-49B1-4D2B-8E29-873935389773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-93" yWindow="507" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +61,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -419,22 +420,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.90625" customWidth="1"/>
-    <col min="5" max="5" width="19.26953125" customWidth="1"/>
-    <col min="6" max="6" width="12.26953125" customWidth="1"/>
-    <col min="7" max="7" width="18.81640625" customWidth="1"/>
+    <col min="1" max="1" width="18.87890625" customWidth="1"/>
+    <col min="5" max="5" width="19.29296875" customWidth="1"/>
+    <col min="6" max="6" width="12.29296875" customWidth="1"/>
+    <col min="7" max="7" width="18.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="34" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -459,7 +460,7 @@
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A2" s="4"/>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -474,7 +475,7 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4">
@@ -493,7 +494,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4">
@@ -512,7 +513,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4">
@@ -531,7 +532,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4">
@@ -550,7 +551,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4">
@@ -569,7 +570,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
@@ -578,7 +579,7 @@
       <c r="F8" s="4"/>
       <c r="G8" s="4"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>7</v>
@@ -599,7 +600,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A10" s="4"/>
       <c r="B10" s="4" t="s">
         <v>7</v>
@@ -611,7 +612,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
       <c r="C11" s="4">
@@ -624,7 +625,7 @@
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
       <c r="C12" s="4">
@@ -637,7 +638,7 @@
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
     </row>
-    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C13" s="4">
         <v>10</v>
       </c>
@@ -645,118 +646,133 @@
         <v>90</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5"/>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
+      <c r="C15" s="4">
+        <v>65</v>
+      </c>
+      <c r="D15" s="4">
+        <v>35</v>
+      </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.5">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4">
+        <v>70</v>
+      </c>
+      <c r="D16" s="4">
+        <v>30</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B17" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C17" s="4">
         <v>75</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D17" s="4">
         <v>25</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E17" s="8">
         <v>0.1</v>
       </c>
-      <c r="F16" s="7">
+      <c r="F17" s="7">
         <v>0.2</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G17" s="6">
         <v>0.08</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A18" s="4" t="s">
         <v>9</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4">
-        <v>80</v>
-      </c>
-      <c r="D17" s="4">
-        <v>20</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.03</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="G17" s="7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>10</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="D18" s="4">
-        <v>85</v>
-      </c>
-      <c r="E18" s="7">
-        <v>0.7</v>
-      </c>
-      <c r="F18" s="5">
-        <v>0.09</v>
+        <v>20</v>
+      </c>
+      <c r="E18" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0.4</v>
       </c>
       <c r="G18" s="7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.5">
       <c r="A19" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4">
+        <v>15</v>
+      </c>
+      <c r="D19" s="4">
+        <v>85</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A20" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4">
         <v>10</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D20" s="4">
         <v>90</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E20" s="5">
         <v>0.03</v>
       </c>
-      <c r="F19" s="7">
+      <c r="F20" s="7">
         <v>0.8</v>
       </c>
-      <c r="G19" s="7">
+      <c r="G20" s="7">
         <v>0.5</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.5">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/results-synth.xlsx
+++ b/results-synth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B35582A7-49B1-4D2B-8E29-873935389773}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C38B3E-41F5-499D-90CF-E1E6E490781F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="507" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -656,9 +656,15 @@
       <c r="D15" s="4">
         <v>35</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
+      <c r="E15" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G15" s="6">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A16" s="4"/>

--- a/results-synth.xlsx
+++ b/results-synth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C38B3E-41F5-499D-90CF-E1E6E490781F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E0DFC9-FBAD-433A-B7FB-79D70EB56081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="507" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -471,9 +471,15 @@
       <c r="D2" s="4">
         <v>65</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="E2" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="F2" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.1</v>
+      </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A3" s="4"/>

--- a/results-synth.xlsx
+++ b/results-synth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62E0DFC9-FBAD-433A-B7FB-79D70EB56081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F6F70D-CFD1-4E98-8B7E-2A2730045F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="507" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -617,6 +617,15 @@
       <c r="D10" s="4">
         <v>75</v>
       </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0.7</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A11" s="4"/>

--- a/results-synth.xlsx
+++ b/results-synth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F6F70D-CFD1-4E98-8B7E-2A2730045F71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC41FB-84B3-4A25-B106-B58DEF892796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="507" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -636,9 +636,15 @@
       <c r="D11" s="4">
         <v>80</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="E11" s="7">
+        <v>0.8</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.5">
       <c r="A12" s="4"/>

--- a/results-synth.xlsx
+++ b/results-synth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61AC41FB-84B3-4A25-B106-B58DEF892796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74244105-7F00-4CAD-9CE2-3F03EB57F730}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="507" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -424,7 +424,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -655,9 +655,15 @@
       <c r="D12" s="4">
         <v>85</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="E12" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0.3</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.08</v>
+      </c>
     </row>
     <row r="13" spans="1:11" s="4" customFormat="1" x14ac:dyDescent="0.5">
       <c r="C13" s="4">

--- a/results-synth.xlsx
+++ b/results-synth.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6C7A747-63DE-4527-BDFE-BAA774C9424D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC0131B-1C69-4B8E-96B8-DA0029401CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="507" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,13 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>Postperiod  RMSPE  / Preperiod RMSPE</t>
   </si>
@@ -46,14 +40,23 @@
     <t>larger than 10K</t>
   </si>
   <si>
-    <t>includes municipalities without CCT data as 0%  coverage (low group)</t>
+    <t>#regions</t>
+  </si>
+  <si>
+    <t>includes municipalities without CCT data as 0% coverage (low group)</t>
+  </si>
+  <si>
+    <t>high CCT%</t>
+  </si>
+  <si>
+    <t>low CCT%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -61,8 +64,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -89,7 +100,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -275,7 +292,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -283,26 +300,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -318,9 +318,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,43 +330,47 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
@@ -381,13 +382,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -670,419 +680,546 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="4" max="4" width="19.29296875" customWidth="1"/>
-    <col min="5" max="5" width="12.29296875" customWidth="1"/>
-    <col min="6" max="6" width="18.8203125" customWidth="1"/>
+    <col min="1" max="1" width="8.9375" style="20"/>
+    <col min="2" max="2" width="6.1171875" customWidth="1"/>
+    <col min="3" max="3" width="7.703125" customWidth="1"/>
+    <col min="4" max="4" width="5.1171875" customWidth="1"/>
+    <col min="5" max="5" width="8.29296875" customWidth="1"/>
+    <col min="6" max="6" width="19.29296875" customWidth="1"/>
+    <col min="7" max="7" width="12.29296875" customWidth="1"/>
+    <col min="8" max="8" width="18.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="34" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="D1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="G1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="37" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A2" s="28" t="s">
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A2" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="31">
+        <v>65</v>
+      </c>
+      <c r="C2" s="3">
+        <v>31</v>
+      </c>
+      <c r="D2" s="34">
+        <v>35</v>
+      </c>
+      <c r="E2" s="3">
+        <v>48</v>
+      </c>
+      <c r="F2" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="G2" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="H2" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A3" s="23"/>
+      <c r="B3" s="32">
+        <v>70</v>
+      </c>
+      <c r="C3" s="4">
+        <v>22</v>
+      </c>
+      <c r="D3" s="35">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4">
+        <v>41</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G3" s="12">
+        <v>0.04</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A4" s="23"/>
+      <c r="B4" s="32">
+        <v>75</v>
+      </c>
+      <c r="C4" s="4">
+        <v>18</v>
+      </c>
+      <c r="D4" s="35">
+        <v>25</v>
+      </c>
+      <c r="E4" s="4">
+        <v>36</v>
+      </c>
+      <c r="F4" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A5" s="23"/>
+      <c r="B5" s="32">
+        <v>80</v>
+      </c>
+      <c r="C5" s="4">
+        <v>14</v>
+      </c>
+      <c r="D5" s="35">
+        <v>20</v>
+      </c>
+      <c r="E5" s="4">
+        <v>28</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A6" s="23"/>
+      <c r="B6" s="32">
+        <v>85</v>
+      </c>
+      <c r="C6" s="4">
+        <v>13</v>
+      </c>
+      <c r="D6" s="35">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
+        <v>24</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="G6" s="12">
+        <v>0.05</v>
+      </c>
+      <c r="H6" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A7" s="24"/>
+      <c r="B7" s="33">
+        <v>90</v>
+      </c>
+      <c r="C7" s="9">
+        <v>12</v>
+      </c>
+      <c r="D7" s="36">
+        <v>10</v>
+      </c>
+      <c r="E7" s="9">
+        <v>18</v>
+      </c>
+      <c r="F7" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="30"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A9" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="31">
+        <v>65</v>
+      </c>
+      <c r="C9" s="3">
+        <v>43</v>
+      </c>
+      <c r="D9" s="34">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3">
+        <v>70</v>
+      </c>
+      <c r="F9" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="G9" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="H9" s="11">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A10" s="26"/>
+      <c r="B10" s="32">
+        <v>70</v>
+      </c>
+      <c r="C10" s="4">
+        <v>32</v>
+      </c>
+      <c r="D10" s="35">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4">
+        <v>60</v>
+      </c>
+      <c r="F10" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G10" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A11" s="26"/>
+      <c r="B11" s="32">
+        <v>75</v>
+      </c>
+      <c r="C11" s="4">
+        <v>26</v>
+      </c>
+      <c r="D11" s="35">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4">
+        <v>53</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="H11" s="7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A12" s="26"/>
+      <c r="B12" s="32">
+        <v>80</v>
+      </c>
+      <c r="C12" s="4">
+        <v>22</v>
+      </c>
+      <c r="D12" s="35">
+        <v>20</v>
+      </c>
+      <c r="E12" s="4">
+        <v>36</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A13" s="26"/>
+      <c r="B13" s="32">
+        <v>85</v>
+      </c>
+      <c r="C13" s="4">
+        <v>19</v>
+      </c>
+      <c r="D13" s="35">
+        <v>15</v>
+      </c>
+      <c r="E13" s="4">
+        <v>30</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="H13" s="6">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="27"/>
+      <c r="B14" s="33">
+        <v>90</v>
+      </c>
+      <c r="C14" s="9">
+        <v>17</v>
+      </c>
+      <c r="D14" s="36">
+        <v>10</v>
+      </c>
+      <c r="E14" s="9">
+        <v>19</v>
+      </c>
+      <c r="F14" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A16" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="31">
+        <v>65</v>
+      </c>
+      <c r="C16" s="3">
+        <v>31</v>
+      </c>
+      <c r="D16" s="34">
+        <v>35</v>
+      </c>
+      <c r="E16" s="3">
+        <v>57</v>
+      </c>
+      <c r="F16" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="G16" s="10">
+        <v>0.7</v>
+      </c>
+      <c r="H16" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A17" s="23"/>
+      <c r="B17" s="32">
+        <v>70</v>
+      </c>
+      <c r="C17" s="4">
+        <v>22</v>
+      </c>
+      <c r="D17" s="35">
+        <v>30</v>
+      </c>
+      <c r="E17" s="4">
+        <v>50</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.3</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="8">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A18" s="23"/>
+      <c r="B18" s="32">
+        <v>75</v>
+      </c>
+      <c r="C18" s="4">
+        <v>18</v>
+      </c>
+      <c r="D18" s="35">
+        <v>25</v>
+      </c>
+      <c r="E18" s="4">
+        <v>45</v>
+      </c>
+      <c r="F18" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>0.2</v>
+      </c>
+      <c r="H18" s="6">
+        <v>0.08</v>
+      </c>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A19" s="23"/>
+      <c r="B19" s="32">
+        <v>80</v>
+      </c>
+      <c r="C19" s="4">
+        <v>14</v>
+      </c>
+      <c r="D19" s="35">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4">
+        <v>37</v>
+      </c>
+      <c r="F19" s="12">
+        <v>0.03</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.4</v>
+      </c>
+      <c r="H19" s="7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A20" s="23"/>
+      <c r="B20" s="32">
+        <v>85</v>
+      </c>
+      <c r="C20" s="4">
+        <v>13</v>
+      </c>
+      <c r="D20" s="35">
+        <v>15</v>
+      </c>
+      <c r="E20" s="4">
+        <v>33</v>
+      </c>
+      <c r="F20" s="5">
+        <v>0.7</v>
+      </c>
+      <c r="G20" s="15">
+        <v>0.09</v>
+      </c>
+      <c r="H20" s="7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A21" s="24"/>
+      <c r="B21" s="33">
+        <v>90</v>
+      </c>
+      <c r="C21" s="9">
+        <v>12</v>
+      </c>
+      <c r="D21" s="36">
+        <v>10</v>
+      </c>
+      <c r="E21" s="9">
+        <v>27</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="H21" s="14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A22" s="19"/>
+      <c r="B22" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6">
-        <v>65</v>
-      </c>
-      <c r="C2" s="7">
-        <v>35</v>
-      </c>
-      <c r="D2" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="E2" s="18">
-        <v>0.8</v>
-      </c>
-      <c r="F2" s="19">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A3" s="29"/>
-      <c r="B3" s="10">
-        <v>70</v>
-      </c>
-      <c r="C3" s="11">
-        <v>30</v>
-      </c>
-      <c r="D3" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E3" s="20">
-        <v>0.04</v>
-      </c>
-      <c r="F3" s="15">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A4" s="29"/>
-      <c r="B4" s="10">
-        <v>75</v>
-      </c>
-      <c r="C4" s="11">
-        <v>25</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="E4" s="21">
-        <v>0.1</v>
-      </c>
-      <c r="F4" s="14">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A5" s="29"/>
-      <c r="B5" s="10">
-        <v>80</v>
-      </c>
-      <c r="C5" s="11">
-        <v>20</v>
-      </c>
-      <c r="D5" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="E5" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="F5" s="14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A6" s="29"/>
-      <c r="B6" s="10">
-        <v>85</v>
-      </c>
-      <c r="C6" s="11">
-        <v>15</v>
-      </c>
-      <c r="D6" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="E6" s="20">
-        <v>0.05</v>
-      </c>
-      <c r="F6" s="14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A7" s="30"/>
-      <c r="B7" s="16">
-        <v>90</v>
-      </c>
-      <c r="C7" s="17">
-        <v>10</v>
-      </c>
-      <c r="D7" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="E7" s="22">
-        <v>0.4</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A8" s="34"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A9" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="6">
-        <v>65</v>
-      </c>
-      <c r="C9" s="7">
-        <v>35</v>
-      </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A10" s="32"/>
-      <c r="B10" s="10">
-        <v>70</v>
-      </c>
-      <c r="C10" s="11">
-        <v>30</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E10" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="13">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A11" s="32"/>
-      <c r="B11" s="10">
-        <v>75</v>
-      </c>
-      <c r="C11" s="11">
-        <v>25</v>
-      </c>
-      <c r="D11" s="12">
-        <v>1</v>
-      </c>
-      <c r="E11" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="F11" s="14">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A12" s="32"/>
-      <c r="B12" s="10">
-        <v>80</v>
-      </c>
-      <c r="C12" s="11">
-        <v>20</v>
-      </c>
-      <c r="D12" s="12">
-        <v>0.8</v>
-      </c>
-      <c r="E12" s="12">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A13" s="32"/>
-      <c r="B13" s="10">
-        <v>85</v>
-      </c>
-      <c r="C13" s="11">
-        <v>15</v>
-      </c>
-      <c r="D13" s="12">
-        <v>0.1</v>
-      </c>
-      <c r="E13" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="F13" s="15">
-        <v>0.08</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="33"/>
-      <c r="B14" s="16">
-        <v>90</v>
-      </c>
-      <c r="C14" s="17">
-        <v>10</v>
-      </c>
-      <c r="D14" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="E14" s="22">
-        <v>0.3</v>
-      </c>
-      <c r="F14" s="23">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="34"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="36"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.5">
-      <c r="A16" s="28" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="6">
-        <v>65</v>
-      </c>
-      <c r="C16" s="7">
-        <v>35</v>
-      </c>
-      <c r="D16" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0.7</v>
-      </c>
-      <c r="F16" s="24">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A17" s="29"/>
-      <c r="B17" s="10">
-        <v>70</v>
-      </c>
-      <c r="C17" s="11">
-        <v>30</v>
-      </c>
-      <c r="D17" s="12">
-        <v>0.3</v>
-      </c>
-      <c r="E17" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="F17" s="15">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A18" s="29"/>
-      <c r="B18" s="10">
-        <v>75</v>
-      </c>
-      <c r="C18" s="11">
-        <v>25</v>
-      </c>
-      <c r="D18" s="25">
-        <v>0.1</v>
-      </c>
-      <c r="E18" s="12">
-        <v>0.2</v>
-      </c>
-      <c r="F18" s="26">
-        <v>0.08</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="3"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A19" s="29"/>
-      <c r="B19" s="10">
-        <v>80</v>
-      </c>
-      <c r="C19" s="11">
-        <v>20</v>
-      </c>
-      <c r="D19" s="20">
-        <v>0.03</v>
-      </c>
-      <c r="E19" s="12">
-        <v>0.4</v>
-      </c>
-      <c r="F19" s="14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A20" s="29"/>
-      <c r="B20" s="10">
-        <v>85</v>
-      </c>
-      <c r="C20" s="11">
-        <v>15</v>
-      </c>
-      <c r="D20" s="12">
-        <v>0.7</v>
-      </c>
-      <c r="E20" s="20">
-        <v>0.09</v>
-      </c>
-      <c r="F20" s="14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A21" s="30"/>
-      <c r="B21" s="16">
-        <v>90</v>
-      </c>
-      <c r="C21" s="17">
-        <v>10</v>
-      </c>
-      <c r="D21" s="27">
-        <v>0.03</v>
-      </c>
-      <c r="E21" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="F21" s="23">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22" s="39"/>
-      <c r="D22" s="39"/>
-      <c r="E22" s="39"/>
-      <c r="F22" s="39"/>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.5">
-      <c r="A26" s="2"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="21"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="21"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A23" s="19"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A24" s="19"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A25" s="19"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A26" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="B22:H22"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A16:A21"/>
     <mergeCell ref="A9:A14"/>
-    <mergeCell ref="A8:F8"/>
-    <mergeCell ref="A15:F15"/>
+    <mergeCell ref="A8:H8"/>
+    <mergeCell ref="A15:H15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/results-synth.xlsx
+++ b/results-synth.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDC0131B-1C69-4B8E-96B8-DA0029401CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12739D65-0EA8-4E5B-A20E-F848C844C5D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="507" windowWidth="18426" windowHeight="11746" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Postperiod  RMSPE  / Preperiod RMSPE</t>
   </si>
@@ -51,6 +51,18 @@
   <si>
     <t>low CCT%</t>
   </si>
+  <si>
+    <t>t 2012</t>
+  </si>
+  <si>
+    <t>t 2010</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>predictors up to</t>
+  </si>
 </sst>
 </file>
 
@@ -73,7 +85,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +122,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="16">
     <border>
@@ -292,7 +310,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -352,6 +370,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -382,22 +418,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -680,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -696,6 +725,7 @@
     <col min="6" max="6" width="19.29296875" customWidth="1"/>
     <col min="7" max="7" width="12.29296875" customWidth="1"/>
     <col min="8" max="8" width="18.8203125" customWidth="1"/>
+    <col min="9" max="9" width="8.9375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="34" customHeight="1" x14ac:dyDescent="0.5">
@@ -723,22 +753,22 @@
       <c r="H1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="1"/>
+      <c r="I1" s="41"/>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="21">
         <v>65</v>
       </c>
       <c r="C2" s="3">
         <v>31</v>
       </c>
-      <c r="D2" s="34">
+      <c r="D2" s="24">
         <v>35</v>
       </c>
       <c r="E2" s="3">
@@ -755,14 +785,14 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A3" s="23"/>
-      <c r="B3" s="32">
+      <c r="A3" s="29"/>
+      <c r="B3" s="22">
         <v>70</v>
       </c>
       <c r="C3" s="4">
         <v>22</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="25">
         <v>30</v>
       </c>
       <c r="E3" s="4">
@@ -779,14 +809,14 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A4" s="23"/>
-      <c r="B4" s="32">
+      <c r="A4" s="29"/>
+      <c r="B4" s="22">
         <v>75</v>
       </c>
       <c r="C4" s="4">
         <v>18</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="25">
         <v>25</v>
       </c>
       <c r="E4" s="4">
@@ -803,14 +833,14 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A5" s="23"/>
-      <c r="B5" s="32">
+      <c r="A5" s="29"/>
+      <c r="B5" s="22">
         <v>80</v>
       </c>
       <c r="C5" s="4">
         <v>14</v>
       </c>
-      <c r="D5" s="35">
+      <c r="D5" s="25">
         <v>20</v>
       </c>
       <c r="E5" s="4">
@@ -827,14 +857,14 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A6" s="23"/>
-      <c r="B6" s="32">
+      <c r="A6" s="29"/>
+      <c r="B6" s="22">
         <v>85</v>
       </c>
       <c r="C6" s="4">
         <v>13</v>
       </c>
-      <c r="D6" s="35">
+      <c r="D6" s="25">
         <v>15</v>
       </c>
       <c r="E6" s="4">
@@ -851,14 +881,14 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A7" s="24"/>
-      <c r="B7" s="33">
+      <c r="A7" s="30"/>
+      <c r="B7" s="23">
         <v>90</v>
       </c>
       <c r="C7" s="9">
         <v>12</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="26">
         <v>10</v>
       </c>
       <c r="E7" s="9">
@@ -875,26 +905,26 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="30"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="21">
         <v>65</v>
       </c>
       <c r="C9" s="3">
         <v>43</v>
       </c>
-      <c r="D9" s="34">
+      <c r="D9" s="24">
         <v>35</v>
       </c>
       <c r="E9" s="3">
@@ -911,14 +941,14 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A10" s="26"/>
-      <c r="B10" s="32">
+      <c r="A10" s="32"/>
+      <c r="B10" s="22">
         <v>70</v>
       </c>
       <c r="C10" s="4">
         <v>32</v>
       </c>
-      <c r="D10" s="35">
+      <c r="D10" s="25">
         <v>30</v>
       </c>
       <c r="E10" s="4">
@@ -935,14 +965,14 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A11" s="26"/>
-      <c r="B11" s="32">
+      <c r="A11" s="32"/>
+      <c r="B11" s="22">
         <v>75</v>
       </c>
       <c r="C11" s="4">
         <v>26</v>
       </c>
-      <c r="D11" s="35">
+      <c r="D11" s="25">
         <v>25</v>
       </c>
       <c r="E11" s="4">
@@ -959,14 +989,14 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A12" s="26"/>
-      <c r="B12" s="32">
+      <c r="A12" s="32"/>
+      <c r="B12" s="22">
         <v>80</v>
       </c>
       <c r="C12" s="4">
         <v>22</v>
       </c>
-      <c r="D12" s="35">
+      <c r="D12" s="25">
         <v>20</v>
       </c>
       <c r="E12" s="4">
@@ -983,14 +1013,14 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A13" s="26"/>
-      <c r="B13" s="32">
+      <c r="A13" s="32"/>
+      <c r="B13" s="22">
         <v>85</v>
       </c>
       <c r="C13" s="4">
         <v>19</v>
       </c>
-      <c r="D13" s="35">
+      <c r="D13" s="25">
         <v>15</v>
       </c>
       <c r="E13" s="4">
@@ -1007,14 +1037,14 @@
       </c>
     </row>
     <row r="14" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="27"/>
-      <c r="B14" s="33">
+      <c r="A14" s="33"/>
+      <c r="B14" s="23">
         <v>90</v>
       </c>
       <c r="C14" s="9">
         <v>17</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="26">
         <v>10</v>
       </c>
       <c r="E14" s="9">
@@ -1031,26 +1061,26 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="30"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35"/>
+      <c r="H15" s="36"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A16" s="22" t="s">
+      <c r="A16" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="21">
         <v>65</v>
       </c>
       <c r="C16" s="3">
         <v>31</v>
       </c>
-      <c r="D16" s="34">
+      <c r="D16" s="24">
         <v>35</v>
       </c>
       <c r="E16" s="3">
@@ -1067,14 +1097,14 @@
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A17" s="23"/>
-      <c r="B17" s="32">
+      <c r="A17" s="29"/>
+      <c r="B17" s="22">
         <v>70</v>
       </c>
       <c r="C17" s="4">
         <v>22</v>
       </c>
-      <c r="D17" s="35">
+      <c r="D17" s="25">
         <v>30</v>
       </c>
       <c r="E17" s="4">
@@ -1091,14 +1121,14 @@
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A18" s="23"/>
-      <c r="B18" s="32">
+      <c r="A18" s="29"/>
+      <c r="B18" s="22">
         <v>75</v>
       </c>
       <c r="C18" s="4">
         <v>18</v>
       </c>
-      <c r="D18" s="35">
+      <c r="D18" s="25">
         <v>25</v>
       </c>
       <c r="E18" s="4">
@@ -1117,14 +1147,14 @@
       <c r="L18" s="2"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A19" s="23"/>
-      <c r="B19" s="32">
+      <c r="A19" s="29"/>
+      <c r="B19" s="22">
         <v>80</v>
       </c>
       <c r="C19" s="4">
         <v>14</v>
       </c>
-      <c r="D19" s="35">
+      <c r="D19" s="25">
         <v>20</v>
       </c>
       <c r="E19" s="4">
@@ -1141,14 +1171,14 @@
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A20" s="23"/>
-      <c r="B20" s="32">
+      <c r="A20" s="29"/>
+      <c r="B20" s="22">
         <v>85</v>
       </c>
       <c r="C20" s="4">
         <v>13</v>
       </c>
-      <c r="D20" s="35">
+      <c r="D20" s="25">
         <v>15</v>
       </c>
       <c r="E20" s="4">
@@ -1165,14 +1195,14 @@
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A21" s="24"/>
-      <c r="B21" s="33">
+      <c r="A21" s="30"/>
+      <c r="B21" s="23">
         <v>90</v>
       </c>
       <c r="C21" s="9">
         <v>12</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="26">
         <v>10</v>
       </c>
       <c r="E21" s="9">
@@ -1190,30 +1220,468 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A22" s="19"/>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+      <c r="H22" s="27"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.5">
       <c r="A23" s="19"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A24" s="19"/>
+      <c r="A24" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="21"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="3"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A25" s="19"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="22">
+        <v>70</v>
+      </c>
+      <c r="C25" s="4">
+        <v>22</v>
+      </c>
+      <c r="D25" s="25">
+        <v>30</v>
+      </c>
+      <c r="E25" s="4">
+        <v>41</v>
+      </c>
+      <c r="H25" s="40"/>
+      <c r="I25" s="2">
+        <v>2017</v>
+      </c>
+      <c r="J25">
+        <v>2010</v>
+      </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.5">
-      <c r="A26" s="19"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="22">
+        <v>70</v>
+      </c>
+      <c r="C26" s="4">
+        <v>22</v>
+      </c>
+      <c r="D26" s="25">
+        <v>30</v>
+      </c>
+      <c r="E26" s="4">
+        <v>41</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="2">
+        <v>2016</v>
+      </c>
+      <c r="J26">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A27" s="29"/>
+      <c r="B27" s="22">
+        <v>70</v>
+      </c>
+      <c r="C27" s="4">
+        <v>22</v>
+      </c>
+      <c r="D27" s="25">
+        <v>30</v>
+      </c>
+      <c r="E27" s="4">
+        <v>41</v>
+      </c>
+      <c r="H27" s="40"/>
+      <c r="I27" s="2">
+        <v>2015</v>
+      </c>
+      <c r="J27">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A28" s="29"/>
+      <c r="B28" s="22">
+        <v>70</v>
+      </c>
+      <c r="C28" s="4">
+        <v>22</v>
+      </c>
+      <c r="D28" s="25">
+        <v>30</v>
+      </c>
+      <c r="E28" s="4">
+        <v>41</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="43">
+        <v>2014</v>
+      </c>
+      <c r="J28">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A29" s="29"/>
+      <c r="B29" s="22">
+        <v>70</v>
+      </c>
+      <c r="C29" s="4">
+        <v>22</v>
+      </c>
+      <c r="D29" s="25">
+        <v>30</v>
+      </c>
+      <c r="E29" s="4">
+        <v>41</v>
+      </c>
+      <c r="H29" s="40"/>
+      <c r="I29" s="2">
+        <v>2013</v>
+      </c>
+      <c r="J29">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A30" s="29"/>
+      <c r="B30" s="22">
+        <v>70</v>
+      </c>
+      <c r="C30" s="4">
+        <v>22</v>
+      </c>
+      <c r="D30" s="25">
+        <v>30</v>
+      </c>
+      <c r="E30" s="4">
+        <v>41</v>
+      </c>
+      <c r="F30" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="G30" s="37">
+        <v>0.06</v>
+      </c>
+      <c r="H30" s="37">
+        <v>0.06</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J30">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A31" s="29"/>
+      <c r="B31" s="22">
+        <v>70</v>
+      </c>
+      <c r="C31" s="4">
+        <v>22</v>
+      </c>
+      <c r="D31" s="25">
+        <v>30</v>
+      </c>
+      <c r="E31" s="4">
+        <v>41</v>
+      </c>
+      <c r="F31" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="G31" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="H31" s="37">
+        <v>0.06</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J31">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.5">
+      <c r="A32" s="29"/>
+      <c r="B32" s="22">
+        <v>70</v>
+      </c>
+      <c r="C32" s="4">
+        <v>22</v>
+      </c>
+      <c r="D32" s="25">
+        <v>30</v>
+      </c>
+      <c r="E32" s="4">
+        <v>41</v>
+      </c>
+      <c r="F32" s="38">
+        <v>0.8</v>
+      </c>
+      <c r="G32" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="H32" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="I32" s="2">
+        <v>2009</v>
+      </c>
+      <c r="J32">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A33" s="29"/>
+      <c r="B33" s="22">
+        <v>70</v>
+      </c>
+      <c r="C33" s="4">
+        <v>22</v>
+      </c>
+      <c r="D33" s="25">
+        <v>30</v>
+      </c>
+      <c r="E33" s="4">
+        <v>41</v>
+      </c>
+      <c r="F33" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="G33" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H33" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I33" s="2">
+        <v>2008</v>
+      </c>
+      <c r="J33">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A34" s="29"/>
+      <c r="B34" s="22">
+        <v>70</v>
+      </c>
+      <c r="C34" s="4">
+        <v>22</v>
+      </c>
+      <c r="D34" s="25">
+        <v>30</v>
+      </c>
+      <c r="E34" s="4">
+        <v>41</v>
+      </c>
+      <c r="F34" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="39">
+        <v>0.02</v>
+      </c>
+      <c r="H34" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="I34" s="2">
+        <v>2007</v>
+      </c>
+      <c r="J34">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A35" s="29"/>
+      <c r="B35" s="22">
+        <v>70</v>
+      </c>
+      <c r="C35" s="4">
+        <v>22</v>
+      </c>
+      <c r="D35" s="25">
+        <v>30</v>
+      </c>
+      <c r="E35" s="4">
+        <v>41</v>
+      </c>
+      <c r="F35" s="38">
+        <v>0.5</v>
+      </c>
+      <c r="G35" s="37">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H35" s="42">
+        <v>0.6</v>
+      </c>
+      <c r="I35" s="2">
+        <v>2008</v>
+      </c>
+      <c r="J35">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A36" s="29"/>
+      <c r="B36" s="22">
+        <v>70</v>
+      </c>
+      <c r="C36" s="4">
+        <v>22</v>
+      </c>
+      <c r="D36" s="25">
+        <v>30</v>
+      </c>
+      <c r="E36" s="4">
+        <v>41</v>
+      </c>
+      <c r="F36" s="38">
+        <v>0.6</v>
+      </c>
+      <c r="G36" s="39">
+        <v>0.03</v>
+      </c>
+      <c r="H36" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="I36" s="2">
+        <v>2007</v>
+      </c>
+      <c r="J36">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A37" s="29"/>
+      <c r="B37" s="22">
+        <v>70</v>
+      </c>
+      <c r="C37" s="4">
+        <v>22</v>
+      </c>
+      <c r="D37" s="25">
+        <v>30</v>
+      </c>
+      <c r="E37" s="4">
+        <v>41</v>
+      </c>
+      <c r="F37" s="38">
+        <v>0.7</v>
+      </c>
+      <c r="G37" s="39">
+        <v>0.04</v>
+      </c>
+      <c r="H37" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="I37" s="2">
+        <v>2006</v>
+      </c>
+      <c r="J37">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A38" s="29"/>
+      <c r="B38" s="22">
+        <v>70</v>
+      </c>
+      <c r="C38" s="4">
+        <v>22</v>
+      </c>
+      <c r="D38" s="25">
+        <v>30</v>
+      </c>
+      <c r="E38" s="4">
+        <v>41</v>
+      </c>
+      <c r="F38" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="G38" s="37">
+        <v>0.06</v>
+      </c>
+      <c r="H38" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="I38" s="2">
+        <v>2005</v>
+      </c>
+      <c r="J38">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="A39" s="30"/>
+      <c r="B39" s="22">
+        <v>70</v>
+      </c>
+      <c r="C39" s="4">
+        <v>22</v>
+      </c>
+      <c r="D39" s="25">
+        <v>30</v>
+      </c>
+      <c r="E39" s="4">
+        <v>41</v>
+      </c>
+      <c r="F39" s="38">
+        <v>1</v>
+      </c>
+      <c r="G39" s="38">
+        <v>0.4</v>
+      </c>
+      <c r="H39" s="38">
+        <v>0.2</v>
+      </c>
+      <c r="I39" s="2">
+        <v>2004</v>
+      </c>
+      <c r="J39">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.5">
+      <c r="B40" s="22">
+        <v>70</v>
+      </c>
+      <c r="C40" s="4">
+        <v>22</v>
+      </c>
+      <c r="D40" s="25">
+        <v>30</v>
+      </c>
+      <c r="E40" s="4">
+        <v>41</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2003</v>
+      </c>
+      <c r="J40">
+        <v>2003</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A24:A39"/>
     <mergeCell ref="B22:H22"/>
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A16:A21"/>
